--- a/NameSpecification & variableTable/WSC_Control_Signal.xlsx
+++ b/NameSpecification & variableTable/WSC_Control_Signal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>序号</t>
   </si>
@@ -42,178 +42,184 @@
     <t>复位信号</t>
   </si>
   <si>
-    <t>pc_i</t>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>时钟信号</t>
+  </si>
+  <si>
+    <t>I_FromIFID_pc</t>
   </si>
   <si>
     <t>译码阶段的指令对应的地址</t>
   </si>
   <si>
-    <t>inst_i</t>
+    <t>I_FromIFID_ins</t>
   </si>
   <si>
     <t>译码阶段的指令</t>
   </si>
   <si>
-    <t>reg1_data_i</t>
+    <t>I_FromRF_reg1_data</t>
   </si>
   <si>
     <t>从Regfile输入的第一个读寄存器端口的输入</t>
   </si>
   <si>
-    <t>reg2_data_i</t>
+    <t>I_FromRF_reg2_data</t>
   </si>
   <si>
     <t>从Regfile输入的第二个读寄存器端口的输入</t>
   </si>
   <si>
-    <t>ex_werg_i</t>
+    <t>I_FromEX_wreg</t>
   </si>
   <si>
     <t>处于执行阶段的指令是否要写目的寄存器</t>
   </si>
   <si>
-    <t>ex_wd_i</t>
+    <t>I_FromEX_wreg_addr</t>
   </si>
   <si>
     <t>处于执行阶段的指令要写的目的寄存器地址</t>
   </si>
   <si>
-    <t>ex_wdata_i</t>
+    <t>I_FromEX_wreg_data</t>
   </si>
   <si>
     <t>处于执行阶段的指令要写入目的寄存器的数据</t>
   </si>
   <si>
-    <t>mem_weg_i</t>
+    <t>I_FromMEM_wreg</t>
   </si>
   <si>
     <t>处于访存阶段的指令是否要写目的寄存器</t>
   </si>
   <si>
-    <t>mem_wd_i</t>
+    <t>I_FromMEM_wreg_addr</t>
   </si>
   <si>
     <t>处于访存阶段的指令要写的目的寄存器地址</t>
   </si>
   <si>
-    <t>mem_wdata_i</t>
+    <t>I_FromMEM_wreg_data</t>
   </si>
   <si>
     <t>处于访存阶段的指令要写入目的寄存器的数据</t>
   </si>
   <si>
-    <t>ex_aluop_i</t>
+    <t>I_FromEX_aluop_i</t>
   </si>
   <si>
     <t>处于执行阶段指令的运算子类型</t>
   </si>
   <si>
-    <t>is_in_delayslot_i</t>
-  </si>
-  <si>
-    <t>reg1_read_o</t>
+    <t>I_FromIDEX_isindelayslot</t>
+  </si>
+  <si>
+    <t>当前处于译码阶段的指令是否位于延迟槽</t>
+  </si>
+  <si>
+    <t>O_ToRF_reg1</t>
   </si>
   <si>
     <t>Regfile模块的第一个读寄存器端口的读使能信号</t>
   </si>
   <si>
-    <t>reg2_read_o</t>
+    <t>O_ToRF_reg2</t>
   </si>
   <si>
     <t>Regfile模块的第二个读寄存器端口的读使能信号</t>
   </si>
   <si>
-    <t>reg1_addr_o</t>
+    <t>O_ToRF_reg1_addr</t>
   </si>
   <si>
     <t>Regfile模块的第一个读寄存器端口的读地址信号</t>
   </si>
   <si>
-    <t>reg2_addr_o</t>
+    <t>O_ToRF_reg2_addr</t>
   </si>
   <si>
     <t>Regfile模块的第二个读寄存器端口的读地址信号</t>
   </si>
   <si>
-    <t>aluop_o</t>
+    <t>O_ToIDEX_aluop</t>
   </si>
   <si>
     <t>译码阶段的指令要进行的运算的子类型</t>
   </si>
   <si>
-    <t>alusel_o</t>
+    <t>O_ToIDEX_alusel</t>
   </si>
   <si>
     <t>译码阶段的指令要进行的运算的类型</t>
   </si>
   <si>
-    <t>reg1_o</t>
+    <t>O_ToIDEX_reg1</t>
   </si>
   <si>
     <t>译码阶段的指令要进行的运算的源操作数1</t>
   </si>
   <si>
-    <t>reg2_o</t>
+    <t>O_ToIDEX_reg2</t>
   </si>
   <si>
     <t>译码阶段的指令要进行的运算的源操作数2</t>
   </si>
   <si>
-    <t>wd_o</t>
+    <t>O_ToIDEX_wd</t>
   </si>
   <si>
     <t>译码阶段的指令要写入的目的寄存器地址</t>
   </si>
   <si>
-    <t>wreg_o</t>
+    <t>O_ToIDEX_wreg</t>
   </si>
   <si>
     <t>译码阶段的指令是否有要写入的目的寄存器</t>
   </si>
   <si>
-    <t>branch_flag_o</t>
+    <t>O_ToPC_branchflag</t>
   </si>
   <si>
     <t>是否发生转移</t>
   </si>
   <si>
-    <t>branch_target_address_o</t>
+    <t>O_ToPC_branch_taraddr</t>
   </si>
   <si>
     <t>转移到的目标地址</t>
   </si>
   <si>
-    <t>is_in_delayslot_o</t>
-  </si>
-  <si>
-    <t>当前处于译码阶段的指令是否位于延迟槽</t>
-  </si>
-  <si>
-    <t>link_addr_o</t>
+    <t>O_ToIDEX_isindelayslot</t>
+  </si>
+  <si>
+    <t>O_ToIDEX_link_addr</t>
   </si>
   <si>
     <t>转移指令要保存的返回地址</t>
   </si>
   <si>
-    <t>next_inst_in_delayslot_o</t>
+    <t>O_ToIDEX_next_inst_in_delayslot</t>
   </si>
   <si>
     <t>下一条进入译码阶段的指令是否位于延迟槽</t>
   </si>
   <si>
-    <t>inst_o</t>
+    <t>O_ToIDEX_inst</t>
   </si>
   <si>
     <t>当前处于译码阶段的指令</t>
   </si>
   <si>
-    <t>excepttype_o</t>
+    <t>O_ToIDEX_excepttype</t>
   </si>
   <si>
     <t>收集的异常信息</t>
   </si>
   <si>
-    <t>current_inst_addr_o</t>
+    <t>O_ToIDEX_current_inst_address</t>
   </si>
   <si>
     <t>译码阶段指令的地址</t>
@@ -225,70 +231,142 @@
     <t>译码阶段请求流水暂停</t>
   </si>
   <si>
-    <t>Regfile</t>
-  </si>
-  <si>
-    <t>复位信号，高电平有效</t>
-  </si>
-  <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>时钟信号</t>
-  </si>
-  <si>
-    <t>waddr</t>
+    <t>ID_op_local</t>
+  </si>
+  <si>
+    <t>取得指令的指令码，功能码</t>
+  </si>
+  <si>
+    <t>ID_op1_local</t>
+  </si>
+  <si>
+    <t>ID_op2_local</t>
+  </si>
+  <si>
+    <t>ID_op3_local</t>
+  </si>
+  <si>
+    <t>ID_imm_local</t>
+  </si>
+  <si>
+    <t>保存指令执行需要的立即数</t>
+  </si>
+  <si>
+    <t>ID_instvalid_local</t>
+  </si>
+  <si>
+    <t>指令是否有效</t>
+  </si>
+  <si>
+    <t>ID_pc_plus_8_local</t>
+  </si>
+  <si>
+    <t>保存当前译码阶段指令后面第2条指令的地址</t>
+  </si>
+  <si>
+    <t>ID_pc_plus_4_local</t>
+  </si>
+  <si>
+    <t>保存当前译码阶段指令后面紧接着的指令的地址</t>
+  </si>
+  <si>
+    <t>ID_imm_sll2_signedext_local</t>
+  </si>
+  <si>
+    <t>分支指令offset左移两位，再符号扩展至32位的值</t>
+  </si>
+  <si>
+    <t>ID_stallreq_for_reg1_loadrelate_local</t>
+  </si>
+  <si>
+    <t>读取的寄存器1是否与上一条指令load相关</t>
+  </si>
+  <si>
+    <t>ID_stallreq_for_reg2_loadrelate_local</t>
+  </si>
+  <si>
+    <t>读取的寄存器2是否与上一条指令load相关</t>
+  </si>
+  <si>
+    <t>ID_pre_inst_is_load_local</t>
+  </si>
+  <si>
+    <t>上一条指令是否加载指令</t>
+  </si>
+  <si>
+    <t>ID_excepttype_is_syscall_local</t>
+  </si>
+  <si>
+    <t>是否是系统调用异常syscall</t>
+  </si>
+  <si>
+    <t>ID_excepttype_is_eret_local</t>
+  </si>
+  <si>
+    <t>是否异常返回指令eret</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>I_FromMEM_WB_waddr</t>
   </si>
   <si>
     <t>要写入的寄存器地址</t>
   </si>
   <si>
-    <t>wadata</t>
+    <t>I_FromMEM_WB_wdata</t>
   </si>
   <si>
     <t>要写入的数据</t>
   </si>
   <si>
-    <t>we</t>
+    <t>I_FromMEM_WB_we</t>
   </si>
   <si>
     <t>写使能信号</t>
   </si>
   <si>
-    <t>raddr1</t>
+    <t>I_FromID_raddr1</t>
   </si>
   <si>
     <t>第一个读寄存器端口要读取的寄存器的地址</t>
   </si>
   <si>
-    <t>re1</t>
+    <t>I_FromID_re1</t>
   </si>
   <si>
     <t>第一个读寄存器端口读使能信号</t>
   </si>
   <si>
-    <t>rdata1</t>
+    <t>O_ToID_rdata1</t>
   </si>
   <si>
     <t>第一个读寄存器端口输出的寄存器值</t>
   </si>
   <si>
-    <t>raddr2</t>
+    <t>I_FromID_raddr2</t>
   </si>
   <si>
     <t>第二个读寄存器端口要读取的寄存器的地址</t>
   </si>
   <si>
-    <t>re2</t>
+    <t>I_FromID_re2</t>
   </si>
   <si>
     <t>第二个读寄存器端口读使能信号</t>
   </si>
   <si>
-    <t>rdata2</t>
+    <t>O_ToID_rdata2</t>
   </si>
   <si>
     <t>第二个读寄存器端口输出的寄存器值</t>
+  </si>
+  <si>
+    <t>RF_regs_local</t>
+  </si>
+  <si>
+    <t>定义32个32位寄存器</t>
   </si>
 </sst>
 </file>
@@ -296,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -317,6 +395,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -326,106 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +426,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,6 +531,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -476,187 +554,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +787,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -724,15 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,21 +836,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -790,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,142 +880,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,125 +1097,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4692650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>525145</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="T6YXG8XNPXP{RLHUHV]EXAX"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10255250" y="95250"/>
-          <a:ext cx="6678295" cy="4241800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4781550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>65405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="XRSC85K~K44VEG7{%Z~%URX"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10344150" y="4361180"/>
-          <a:ext cx="6642100" cy="4312920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4881880</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr=")NRS]~@F{HJD1[IC}BTOIUP"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10444480" y="8772525"/>
-          <a:ext cx="6151245" cy="4565650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,10 +1386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1468,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1536,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1553,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1570,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1587,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -1604,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1621,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1638,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1648,25 +1625,25 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -1675,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1683,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
@@ -1692,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1700,16 +1677,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1717,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -1726,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1734,16 +1711,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1751,16 +1728,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1768,16 +1745,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1785,7 +1762,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
@@ -1794,7 +1771,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1802,16 +1779,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1819,24 +1796,24 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -1845,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1853,16 +1830,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1870,33 +1847,33 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1910,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
@@ -1927,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
@@ -1978,212 +1955,478 @@
         <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
+      <c r="E36" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
         <v>5</v>
       </c>
-      <c r="E38" t="s">
-        <v>74</v>
+      <c r="E38" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
         <v>32</v>
       </c>
-      <c r="E39" t="s">
-        <v>76</v>
+      <c r="E39" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="2">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="7">
+        <v>32</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <v>32</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
-        <v>84</v>
+      <c r="E43" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="2">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="8">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="8">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="8">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="8">
         <v>32</v>
       </c>
-      <c r="E46" t="s">
-        <v>90</v>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="8">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
